--- a/database/DemoAPITestCase.xlsx
+++ b/database/DemoAPITestCase.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>module</t>
   </si>
@@ -60,32 +60,107 @@
     <t xml:space="preserve"> testers</t>
   </si>
   <si>
-    <t>查询机构</t>
+    <t>车管所查询</t>
   </si>
   <si>
     <t>event_query_001</t>
   </si>
   <si>
-    <t>机构查询</t>
-  </si>
-  <si>
-    <t>https://bjjj.jtgl.beijing.gov.cn/suishoupai/ssp_platform/org/queryOrgList</t>
+    <t>车管所id查询</t>
+  </si>
+  <si>
+    <t>https://mock.zhongchebaolian.com:9003/cgsfront/appointment/getHandlingRecord</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t xml:space="preserve">{'Content-Type': 'application/json;charset=UTF-8','Cookie': 'sensorsdata2015jssdkcross=%7B%22distinct_id%22%3A%22178596a43dc89c-0bdbe56d4bb9ba-5771031-1327104-178596a43dd48c%22%7D; _va_id=cff654cd544806cd.1617098059.4.1623992124.1623991997.; Admin-Phone=17600352198; sidebarStatus=1; Admin-Token=c51a6ca219844397a43cffc0e75437b8'}
+    <t xml:space="preserve">{'Content-Type': 'application/json;charset=UTF-8'}
 </t>
   </si>
   <si>
-    <t>{"appId":"100100006211","nonce":"2956241832556591","pageNo":1,"pageSize":10,"timestamp":1625190606431,"token":"c51a6ca219844397a43cffc0e75437b8","sign":"CEDEBFF69DE08038C536C8427EF3ED3D"}</t>
+    <t>{"cgs_token":"fbf66c79988e43608bccc68088d7d0e4","pageIndex":"1"}</t>
+  </si>
+  <si>
+    <t>json</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
     <t>操作成功</t>
+  </si>
+  <si>
+    <t>cgs_query_002</t>
+  </si>
+  <si>
+    <t>车管所名称查询</t>
+  </si>
+  <si>
+    <t>https://mock.zhongchebaolian.com:9003/cgsfront/business/getBusinessList</t>
+  </si>
+  <si>
+    <t>{"cgs_token":"fbf66c79988e43608bccc68088d7d0e4"}</t>
+  </si>
+  <si>
+    <t>吃查询</t>
+  </si>
+  <si>
+    <t>cgs_query_003</t>
+  </si>
+  <si>
+    <t>所有参数为空</t>
+  </si>
+  <si>
+    <t>https://mock.zhongchebaolian.com:9003/cgsfront/home/getNoticePopup</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>车管所添加</t>
+  </si>
+  <si>
+    <t>cgs_add_001</t>
+  </si>
+  <si>
+    <t>车管所不存在id</t>
+  </si>
+  <si>
+    <t>https://mock.zhongchebaolian.com:9003/cgsfront/home/getUserType</t>
+  </si>
+  <si>
+    <t>{"cgs_token":"fbf66c79988e43608bccc68088d7d0e6"}</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>cgs_add_002</t>
+  </si>
+  <si>
+    <t>车管所不存在名称</t>
+  </si>
+  <si>
+    <t>https://mock.zhongchebaolian.com:9003/cgsfront/home/getHomePicture</t>
+  </si>
+  <si>
+    <t>{"cgs_token":"fbf66c79988e43608bccc68088d7d0e7"}</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>车管所删除</t>
+  </si>
+  <si>
+    <t>cgs_delete_003</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>204</t>
   </si>
 </sst>
 </file>
@@ -93,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -137,69 +212,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,12 +243,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -225,11 +307,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,32 +331,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,13 +362,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,13 +512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,138 +536,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -462,12 +543,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,11 +571,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +625,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -546,15 +645,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,21 +668,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,137 +688,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -751,10 +826,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,12 +1212,12 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.3796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3796296296296" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.25" style="1" customWidth="1"/>
@@ -1154,167 +1235,310 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="K2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:13">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:13">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:13">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:13">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:13">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M2">
+  <autoFilter ref="A1:M7">
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://bjjj.jtgl.beijing.gov.cn/suishoupai/ssp_platform/org/queryOrgList"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://mock.zhongchebaolian.com:9003/cgsfront/appointment/getHandlingRecord" tooltip="https://mock.zhongchebaolian.com:9003/cgsfront/appointment/getHandlingRecord"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://mock.zhongchebaolian.com:9003/cgsfront/business/getBusinessList"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://mock.zhongchebaolian.com:9003/cgsfront/home/getNoticePopup" tooltip="https://mock.zhongchebaolian.com:9003/cgsfront/home/getNoticePopup"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://mock.zhongchebaolian.com:9003/cgsfront/home/getUserType" tooltip="https://mock.zhongchebaolian.com:9003/cgsfront/home/getUserType"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://mock.zhongchebaolian.com:9003/cgsfront/home/getHomePicture" tooltip="https://mock.zhongchebaolian.com:9003/cgsfront/home/getHomePicture"/>
+    <hyperlink ref="D7" r:id="rId2" display="https://mock.zhongchebaolian.com:9003/cgsfront/business/getBusinessList" tooltip="https://mock.zhongchebaolian.com:9003/cgsfront/business/getBusinessList"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
